--- a/output/5Y_P26_KFSDIV.xlsx
+++ b/output/5Y_P26_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.8083</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-23</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.5636</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-22</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.1788</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-21</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.5668</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-20</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.962</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-19</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.2659</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-18</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.4103</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-17</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.3976</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-16</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.9013</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.3527</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8804</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.6268</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>15.3636</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-11</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.8711</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-10</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.1252</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-9</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.1934</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-8</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.1176</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-7</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.3311</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-6</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>15.3637</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-5</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.6447</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-4</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.486</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.1958</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>16.4264</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>17.107</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.8894</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>16.4004</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3877</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.6367</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.0061</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.835</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.4216</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.2404</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.382</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>11.9583</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.2036</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>12.9136</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.4338</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>12.9657</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.3568</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.2487</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.3991</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.5985</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.6955</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.3398</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.8469</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.129</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.716</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.4613</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.6545</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.2345</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.1636</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>11.8145</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>11.2352</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>10.8241</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>11.2543</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.5675</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>9.967000000000001</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.0064</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.0129</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.4583</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.3341</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.8083</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-23</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.5636</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-22</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.1788</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-21</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.5668</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-20</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.962</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-19</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.2659</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-18</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.4103</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-17</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.3976</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-16</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.9013</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.3527</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8804</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.6268</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>15.3636</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-11</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.8711</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-10</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.1252</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-9</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.1934</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-8</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.1176</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-7</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.3311</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-6</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>15.3637</v>
@@ -5356,10 +5359,10 @@
         <v>217795.1051</v>
       </c>
       <c r="K20" s="1">
-        <v>158827.0523</v>
+        <v>158845.5589</v>
       </c>
       <c r="L20" s="1">
-        <v>13.5007</v>
+        <v>13.5022</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-5</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.6447</v>
@@ -5409,10 +5412,10 @@
         <v>218864.3405</v>
       </c>
       <c r="K21" s="1">
-        <v>168482.1042</v>
+        <v>168500.6108</v>
       </c>
       <c r="L21" s="1">
-        <v>13.5965</v>
+        <v>13.598</v>
       </c>
       <c r="M21" s="1">
         <v>1</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-4</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.486</v>
@@ -5462,10 +5465,10 @@
         <v>251430.2603</v>
       </c>
       <c r="K22" s="1">
-        <v>187450.0452</v>
+        <v>187468.5517</v>
       </c>
       <c r="L22" s="1">
-        <v>13.6983</v>
+        <v>13.6996</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.1958</v>
@@ -5515,10 +5518,10 @@
         <v>271055.883</v>
       </c>
       <c r="K23" s="1">
-        <v>185954.8198</v>
+        <v>185979.3007</v>
       </c>
       <c r="L23" s="1">
-        <v>13.6854</v>
+        <v>13.6872</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>16.4264</v>
@@ -5568,10 +5571,10 @@
         <v>284187.6338</v>
       </c>
       <c r="K24" s="1">
-        <v>186330.6979</v>
+        <v>186355.1788</v>
       </c>
       <c r="L24" s="1">
-        <v>13.6897</v>
+        <v>13.6915</v>
       </c>
       <c r="M24" s="1">
         <v>0.75</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>17.107</v>
@@ -5621,10 +5624,10 @@
         <v>312876.6222</v>
       </c>
       <c r="K25" s="1">
-        <v>193224.9658</v>
+        <v>193249.4467</v>
       </c>
       <c r="L25" s="1">
-        <v>13.7724</v>
+        <v>13.7741</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.8894</v>
@@ -5674,10 +5677,10 @@
         <v>319821.455</v>
       </c>
       <c r="K26" s="1">
-        <v>193697.7707</v>
+        <v>193722.2516</v>
       </c>
       <c r="L26" s="1">
-        <v>13.779</v>
+        <v>13.7808</v>
       </c>
       <c r="M26" s="1">
         <v>1</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>16.4004</v>
@@ -5727,10 +5730,10 @@
         <v>335182.8571</v>
       </c>
       <c r="K27" s="1">
-        <v>206803.3991</v>
+        <v>206827.88</v>
       </c>
       <c r="L27" s="1">
-        <v>13.9432</v>
+        <v>13.9448</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3877</v>
@@ -5780,10 +5783,10 @@
         <v>329058.6523</v>
       </c>
       <c r="K28" s="1">
-        <v>224110.5433</v>
+        <v>224135.0242</v>
       </c>
       <c r="L28" s="1">
-        <v>14.1083</v>
+        <v>14.1098</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.6367</v>
@@ -5833,10 +5836,10 @@
         <v>325776.6756</v>
       </c>
       <c r="K29" s="1">
-        <v>250270.067</v>
+        <v>250294.5479</v>
       </c>
       <c r="L29" s="1">
-        <v>14.2347</v>
+        <v>14.2361</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.0061</v>
@@ -5886,10 +5889,10 @@
         <v>304491.0122</v>
       </c>
       <c r="K30" s="1">
-        <v>273540.5114</v>
+        <v>273564.9923</v>
       </c>
       <c r="L30" s="1">
-        <v>14.2704</v>
+        <v>14.2717</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.835</v>
@@ -5939,10 +5942,10 @@
         <v>341432.6501</v>
       </c>
       <c r="K31" s="1">
-        <v>314898.5353</v>
+        <v>314923.0162</v>
       </c>
       <c r="L31" s="1">
-        <v>14.0945</v>
+        <v>14.0956</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.4216</v>
@@ -5992,10 +5995,10 @@
         <v>364154.1814</v>
       </c>
       <c r="K32" s="1">
-        <v>306383.2919</v>
+        <v>306441.8026</v>
       </c>
       <c r="L32" s="1">
-        <v>14.1011</v>
+        <v>14.1038</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.2404</v>
@@ -6045,10 +6048,10 @@
         <v>348762.3883</v>
       </c>
       <c r="K33" s="1">
-        <v>303650.8501</v>
+        <v>303720.2713</v>
       </c>
       <c r="L33" s="1">
-        <v>14.098</v>
+        <v>14.1012</v>
       </c>
       <c r="M33" s="1">
         <v>0.4</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.382</v>
@@ -6098,10 +6101,10 @@
         <v>345627.6733</v>
       </c>
       <c r="K34" s="1">
-        <v>339184.5971</v>
+        <v>339254.0183</v>
       </c>
       <c r="L34" s="1">
-        <v>14.0061</v>
+        <v>14.009</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>11.9583</v>
@@ -6151,10 +6154,10 @@
         <v>344213.3535</v>
       </c>
       <c r="K35" s="1">
-        <v>370054.6477</v>
+        <v>370124.0688</v>
       </c>
       <c r="L35" s="1">
-        <v>13.8571</v>
+        <v>13.8597</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.2036</v>
@@ -6204,10 +6207,10 @@
         <v>361102.0253</v>
       </c>
       <c r="K36" s="1">
-        <v>391431.0083</v>
+        <v>391500.4295</v>
       </c>
       <c r="L36" s="1">
-        <v>13.7397</v>
+        <v>13.7421</v>
       </c>
       <c r="M36" s="1">
         <v>0.4</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>12.9136</v>
@@ -6257,10 +6260,10 @@
         <v>401709.3493</v>
       </c>
       <c r="K37" s="1">
-        <v>394469.0321</v>
+        <v>394538.4533</v>
       </c>
       <c r="L37" s="1">
-        <v>13.7266</v>
+        <v>13.729</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.4338</v>
@@ -6310,10 +6313,10 @@
         <v>426209.5743</v>
       </c>
       <c r="K38" s="1">
-        <v>384064.0524</v>
+        <v>384175.0469</v>
       </c>
       <c r="L38" s="1">
-        <v>13.7493</v>
+        <v>13.7533</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>12.9657</v>
@@ -6363,10 +6366,10 @@
         <v>423318.6748</v>
       </c>
       <c r="K39" s="1">
-        <v>379545.7686</v>
+        <v>379674.8218</v>
       </c>
       <c r="L39" s="1">
-        <v>13.7528</v>
+        <v>13.7575</v>
       </c>
       <c r="M39" s="1">
         <v>0.3</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.3568</v>
@@ -6416,10 +6419,10 @@
         <v>452140.0955</v>
       </c>
       <c r="K40" s="1">
-        <v>402528.4808</v>
+        <v>402657.534</v>
       </c>
       <c r="L40" s="1">
-        <v>13.7069</v>
+        <v>13.7113</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.2487</v>
@@ -6469,10 +6472,10 @@
         <v>458983.255</v>
       </c>
       <c r="K41" s="1">
-        <v>401060.7673</v>
+        <v>401195.6876</v>
       </c>
       <c r="L41" s="1">
-        <v>13.7082</v>
+        <v>13.7128</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.3991</v>
@@ -6522,10 +6525,10 @@
         <v>473471.365</v>
       </c>
       <c r="K42" s="1">
-        <v>414270.3458</v>
+        <v>414405.2661</v>
       </c>
       <c r="L42" s="1">
-        <v>13.6939</v>
+        <v>13.6984</v>
       </c>
       <c r="M42" s="1">
         <v>0.4</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.5985</v>
@@ -6575,10 +6578,10 @@
         <v>500441.6763</v>
       </c>
       <c r="K43" s="1">
-        <v>419751.3797</v>
+        <v>419886.3</v>
       </c>
       <c r="L43" s="1">
-        <v>13.6903</v>
+        <v>13.6947</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.6955</v>
@@ -6628,10 +6631,10 @@
         <v>513421.7827</v>
       </c>
       <c r="K44" s="1">
-        <v>423665.5884</v>
+        <v>423800.5087</v>
       </c>
       <c r="L44" s="1">
-        <v>13.6897</v>
+        <v>13.6941</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.3398</v>
@@ -6681,10 +6684,10 @@
         <v>512225.3593</v>
       </c>
       <c r="K45" s="1">
-        <v>430697.9372</v>
+        <v>430832.8575</v>
       </c>
       <c r="L45" s="1">
-        <v>13.6903</v>
+        <v>13.6946</v>
       </c>
       <c r="M45" s="1">
         <v>0.3</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.8469</v>
@@ -6734,10 +6737,10 @@
         <v>514377.3118</v>
       </c>
       <c r="K46" s="1">
-        <v>451951.1861</v>
+        <v>452086.1064</v>
       </c>
       <c r="L46" s="1">
-        <v>13.6747</v>
+        <v>13.6788</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.129</v>
@@ -6787,10 +6790,10 @@
         <v>534152.1668</v>
       </c>
       <c r="K47" s="1">
-        <v>478313.8221</v>
+        <v>478448.7424</v>
       </c>
       <c r="L47" s="1">
-        <v>13.6279</v>
+        <v>13.6317</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.716</v>
@@ -6840,10 +6843,10 @@
         <v>529683.9804</v>
       </c>
       <c r="K48" s="1">
-        <v>478434.1829</v>
+        <v>478569.1032</v>
       </c>
       <c r="L48" s="1">
-        <v>13.6278</v>
+        <v>13.6316</v>
       </c>
       <c r="M48" s="1">
         <v>0.3</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.4613</v>
@@ -6893,10 +6896,10 @@
         <v>539650.437</v>
       </c>
       <c r="K49" s="1">
-        <v>503000.0242</v>
+        <v>503134.9445</v>
       </c>
       <c r="L49" s="1">
-        <v>13.5816</v>
+        <v>13.5853</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.6545</v>
@@ -6946,10 +6949,10 @@
         <v>557013.9202000001</v>
       </c>
       <c r="K50" s="1">
-        <v>522492.2924</v>
+        <v>522627.2127</v>
       </c>
       <c r="L50" s="1">
-        <v>13.5373</v>
+        <v>13.5408</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.2345</v>
@@ -6999,10 +7002,10 @@
         <v>550739.1188000001</v>
       </c>
       <c r="K51" s="1">
-        <v>525061.1822</v>
+        <v>525196.1025</v>
       </c>
       <c r="L51" s="1">
-        <v>13.5329</v>
+        <v>13.5363</v>
       </c>
       <c r="M51" s="1">
         <v>0.3</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.1636</v>
@@ -7052,10 +7055,10 @@
         <v>568214.2716</v>
       </c>
       <c r="K52" s="1">
-        <v>551431.1143</v>
+        <v>551566.0346</v>
       </c>
       <c r="L52" s="1">
-        <v>13.4659</v>
+        <v>13.4692</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>11.8145</v>
@@ -7105,10 +7108,10 @@
         <v>563525.4514</v>
       </c>
       <c r="K53" s="1">
-        <v>564378.0146</v>
+        <v>564512.9349</v>
       </c>
       <c r="L53" s="1">
-        <v>13.4336</v>
+        <v>13.4368</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>11.2352</v>
@@ -7158,10 +7161,10 @@
         <v>547926.953</v>
       </c>
       <c r="K54" s="1">
-        <v>589113.9357</v>
+        <v>589248.8561</v>
       </c>
       <c r="L54" s="1">
-        <v>13.358</v>
+        <v>13.3611</v>
       </c>
       <c r="M54" s="1">
         <v>0.3</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>10.8241</v>
@@ -7211,10 +7214,10 @@
         <v>550297.9791999999</v>
       </c>
       <c r="K55" s="1">
-        <v>624756.0718</v>
+        <v>624890.9921</v>
       </c>
       <c r="L55" s="1">
-        <v>13.2174</v>
+        <v>13.2202</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>11.2543</v>
@@ -7264,10 +7267,10 @@
         <v>581645.1151000001</v>
       </c>
       <c r="K56" s="1">
-        <v>654268.1566</v>
+        <v>654403.0769</v>
       </c>
       <c r="L56" s="1">
-        <v>13.0883</v>
+        <v>13.091</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.5675</v>
@@ -7317,10 +7320,10 @@
         <v>558082.3736</v>
       </c>
       <c r="K57" s="1">
-        <v>642756.8893</v>
+        <v>642937.8469</v>
       </c>
       <c r="L57" s="1">
-        <v>13.126</v>
+        <v>13.1297</v>
       </c>
       <c r="M57" s="1">
         <v>0.3</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>9.967000000000001</v>
@@ -7370,10 +7373,10 @@
         <v>549306.9959</v>
       </c>
       <c r="K58" s="1">
-        <v>686494.3543</v>
+        <v>686675.3119</v>
       </c>
       <c r="L58" s="1">
-        <v>12.9287</v>
+        <v>12.9321</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.0064</v>
@@ -7423,10 +7426,10 @@
         <v>561391.9041</v>
       </c>
       <c r="K59" s="1">
-        <v>717623.3937</v>
+        <v>717804.3513</v>
       </c>
       <c r="L59" s="1">
-        <v>12.7655</v>
+        <v>12.7688</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.0129</v>
@@ -7476,10 +7479,10 @@
         <v>571723.7946</v>
       </c>
       <c r="K60" s="1">
-        <v>727623.3937</v>
+        <v>727804.3513</v>
       </c>
       <c r="L60" s="1">
-        <v>12.7178</v>
+        <v>12.721</v>
       </c>
       <c r="M60" s="1">
         <v>0.3</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.4583</v>
@@ -7529,10 +7532,10 @@
         <v>623005.5535</v>
       </c>
       <c r="K61" s="1">
-        <v>737623.3937</v>
+        <v>737804.3513</v>
       </c>
       <c r="L61" s="1">
-        <v>12.6718</v>
+        <v>12.6749</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.3341</v>
@@ -7582,10 +7585,10 @@
         <v>625877.3415</v>
       </c>
       <c r="K62" s="1">
-        <v>730035.0094</v>
+        <v>730246.3081</v>
       </c>
       <c r="L62" s="1">
-        <v>12.6994</v>
+        <v>12.7031</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.8083</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-23</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.5636</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-22</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.1788</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-21</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.5668</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-20</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.962</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-19</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.2659</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-18</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.4103</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-17</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.3976</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-16</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.9013</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.3527</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8804</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.6268</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>15.3636</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-11</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.8711</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-10</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.1252</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-9</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.1934</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-8</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.1176</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-7</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.3311</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-6</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>15.3637</v>
@@ -8668,10 +8671,10 @@
         <v>218867.6102</v>
       </c>
       <c r="K20" s="1">
-        <v>166025.9868</v>
+        <v>166043.3476</v>
       </c>
       <c r="L20" s="1">
-        <v>13.5223</v>
+        <v>13.5237</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-5</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.6447</v>
@@ -8721,10 +8724,10 @@
         <v>219521.4289</v>
       </c>
       <c r="K21" s="1">
-        <v>176607.2859</v>
+        <v>176624.6467</v>
       </c>
       <c r="L21" s="1">
-        <v>13.6215</v>
+        <v>13.6229</v>
       </c>
       <c r="M21" s="1">
         <v>1</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-4</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.486</v>
@@ -8774,10 +8777,10 @@
         <v>253160.5444</v>
       </c>
       <c r="K22" s="1">
-        <v>196986.5653</v>
+        <v>197003.9261</v>
       </c>
       <c r="L22" s="1">
-        <v>13.7234</v>
+        <v>13.7246</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.1958</v>
@@ -8827,10 +8830,10 @@
         <v>273283.0377</v>
       </c>
       <c r="K23" s="1">
-        <v>195979.7822</v>
+        <v>196001.1656</v>
       </c>
       <c r="L23" s="1">
-        <v>13.7152</v>
+        <v>13.7167</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>16.4264</v>
@@ -8880,10 +8883,10 @@
         <v>286582.4652</v>
       </c>
       <c r="K24" s="1">
-        <v>196965.4251</v>
+        <v>196986.8086</v>
       </c>
       <c r="L24" s="1">
-        <v>13.7258</v>
+        <v>13.7273</v>
       </c>
       <c r="M24" s="1">
         <v>0.75</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>17.107</v>
@@ -8933,10 +8936,10 @@
         <v>316309.2046</v>
       </c>
       <c r="K25" s="1">
-        <v>204853.2691</v>
+        <v>204874.6526</v>
       </c>
       <c r="L25" s="1">
-        <v>13.8142</v>
+        <v>13.8156</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.8894</v>
@@ -8986,10 +8989,10 @@
         <v>323069.1656</v>
       </c>
       <c r="K26" s="1">
-        <v>206001.3823</v>
+        <v>206022.7658</v>
       </c>
       <c r="L26" s="1">
-        <v>13.8291</v>
+        <v>13.8306</v>
       </c>
       <c r="M26" s="1">
         <v>1</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>16.4004</v>
@@ -9039,10 +9042,10 @@
         <v>338728.2067</v>
       </c>
       <c r="K27" s="1">
-        <v>220566.612</v>
+        <v>220587.9955</v>
       </c>
       <c r="L27" s="1">
-        <v>13.9981</v>
+        <v>13.9995</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3877</v>
@@ -9092,10 +9095,10 @@
         <v>331552.1041</v>
       </c>
       <c r="K28" s="1">
-        <v>239660.2462</v>
+        <v>239681.6297</v>
       </c>
       <c r="L28" s="1">
-        <v>14.1654</v>
+        <v>14.1666</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.6367</v>
@@ -9145,10 +9148,10 @@
         <v>327367.0628</v>
       </c>
       <c r="K29" s="1">
-        <v>268258.8656</v>
+        <v>268280.2491</v>
       </c>
       <c r="L29" s="1">
-        <v>14.2892</v>
+        <v>14.2903</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.0061</v>
@@ -9198,10 +9201,10 @@
         <v>303872.3672</v>
       </c>
       <c r="K30" s="1">
-        <v>293873.515</v>
+        <v>293894.8985</v>
       </c>
       <c r="L30" s="1">
-        <v>14.3213</v>
+        <v>14.3223</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.835</v>
@@ -9251,10 +9254,10 @@
         <v>342761.2786</v>
       </c>
       <c r="K31" s="1">
-        <v>338944.7754</v>
+        <v>338966.1589</v>
       </c>
       <c r="L31" s="1">
-        <v>14.1353</v>
+        <v>14.1362</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.4216</v>
@@ -9304,10 +9307,10 @@
         <v>366449.6534</v>
       </c>
       <c r="K32" s="1">
-        <v>330632.7228</v>
+        <v>330687.324</v>
       </c>
       <c r="L32" s="1">
-        <v>14.1423</v>
+        <v>14.1447</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.2404</v>
@@ -9357,10 +9360,10 @@
         <v>349058.12</v>
       </c>
       <c r="K33" s="1">
-        <v>328550.0328</v>
+        <v>328612.9501</v>
       </c>
       <c r="L33" s="1">
-        <v>14.1404</v>
+        <v>14.1431</v>
       </c>
       <c r="M33" s="1">
         <v>0.4</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.382</v>
@@ -9410,10 +9413,10 @@
         <v>344828.0818</v>
       </c>
       <c r="K34" s="1">
-        <v>367770.3183</v>
+        <v>367833.2356</v>
       </c>
       <c r="L34" s="1">
-        <v>14.0418</v>
+        <v>14.0442</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>11.9583</v>
@@ -9463,10 +9466,10 @@
         <v>342567.2991</v>
       </c>
       <c r="K35" s="1">
-        <v>398950.056</v>
+        <v>399012.9733</v>
       </c>
       <c r="L35" s="1">
-        <v>13.8987</v>
+        <v>13.9009</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.2036</v>
@@ -9516,10 +9519,10 @@
         <v>359758.4109</v>
       </c>
       <c r="K36" s="1">
-        <v>408950.056</v>
+        <v>409012.9733</v>
       </c>
       <c r="L36" s="1">
-        <v>13.8445</v>
+        <v>13.8467</v>
       </c>
       <c r="M36" s="1">
         <v>0.4</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>12.9136</v>
@@ -9569,10 +9572,10 @@
         <v>401863.0201</v>
       </c>
       <c r="K37" s="1">
-        <v>418950.056</v>
+        <v>419012.9733</v>
       </c>
       <c r="L37" s="1">
-        <v>13.801</v>
+        <v>13.8031</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.4338</v>
@@ -9622,10 +9625,10 @@
         <v>427698.4223</v>
       </c>
       <c r="K38" s="1">
-        <v>421090.5901</v>
+        <v>421153.5074</v>
       </c>
       <c r="L38" s="1">
-        <v>13.7963</v>
+        <v>13.7984</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>12.9657</v>
@@ -9675,10 +9678,10 @@
         <v>423576.6909</v>
       </c>
       <c r="K39" s="1">
-        <v>417197.8821</v>
+        <v>417276.3578</v>
       </c>
       <c r="L39" s="1">
-        <v>13.7995</v>
+        <v>13.8021</v>
       </c>
       <c r="M39" s="1">
         <v>0.3</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.3568</v>
@@ -9728,10 +9731,10 @@
         <v>454223.2243</v>
       </c>
       <c r="K40" s="1">
-        <v>443451.1308</v>
+        <v>443529.6065</v>
       </c>
       <c r="L40" s="1">
-        <v>13.7489</v>
+        <v>13.7513</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.2487</v>
@@ -9781,10 +9784,10 @@
         <v>460747.1278</v>
       </c>
       <c r="K41" s="1">
-        <v>442947.3285</v>
+        <v>443027.8182</v>
       </c>
       <c r="L41" s="1">
-        <v>13.7493</v>
+        <v>13.7518</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.3991</v>
@@ -9834,10 +9837,10 @@
         <v>475697.4685</v>
       </c>
       <c r="K42" s="1">
-        <v>458633.2559</v>
+        <v>458713.7455</v>
       </c>
       <c r="L42" s="1">
-        <v>13.7326</v>
+        <v>13.735</v>
       </c>
       <c r="M42" s="1">
         <v>0.4</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.5985</v>
@@ -9887,10 +9890,10 @@
         <v>504444.9057</v>
       </c>
       <c r="K43" s="1">
-        <v>465857.0724</v>
+        <v>465937.5621</v>
       </c>
       <c r="L43" s="1">
-        <v>13.7277</v>
+        <v>13.7301</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.6955</v>
@@ -9940,10 +9943,10 @@
         <v>517747.1001</v>
       </c>
       <c r="K44" s="1">
-        <v>471394.9891</v>
+        <v>471475.4787</v>
       </c>
       <c r="L44" s="1">
-        <v>13.7265</v>
+        <v>13.7288</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.3398</v>
@@ -9993,10 +9996,10 @@
         <v>515285.6744</v>
       </c>
       <c r="K45" s="1">
-        <v>480437.1199</v>
+        <v>480517.6096</v>
       </c>
       <c r="L45" s="1">
-        <v>13.7264</v>
+        <v>13.7287</v>
       </c>
       <c r="M45" s="1">
         <v>0.3</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.8469</v>
@@ -10046,10 +10049,10 @@
         <v>516502.468</v>
       </c>
       <c r="K46" s="1">
-        <v>505353.9604</v>
+        <v>505434.4501</v>
       </c>
       <c r="L46" s="1">
-        <v>13.7082</v>
+        <v>13.7104</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.129</v>
@@ -10099,10 +10102,10 @@
         <v>537428.9263000001</v>
       </c>
       <c r="K47" s="1">
-        <v>536064.4287</v>
+        <v>536144.9183</v>
       </c>
       <c r="L47" s="1">
-        <v>13.6574</v>
+        <v>13.6595</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.716</v>
@@ -10152,10 +10155,10 @@
         <v>531201.6616</v>
       </c>
       <c r="K48" s="1">
-        <v>537537.442</v>
+        <v>537617.9317</v>
       </c>
       <c r="L48" s="1">
-        <v>13.656</v>
+        <v>13.658</v>
       </c>
       <c r="M48" s="1">
         <v>0.3</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.4613</v>
@@ -10205,10 +10208,10 @@
         <v>541131.1958</v>
       </c>
       <c r="K49" s="1">
-        <v>566453.1192</v>
+        <v>566533.6089</v>
       </c>
       <c r="L49" s="1">
-        <v>13.6062</v>
+        <v>13.6081</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.6545</v>
@@ -10258,10 +10261,10 @@
         <v>559424.7304999999</v>
       </c>
       <c r="K50" s="1">
-        <v>589770.8750999999</v>
+        <v>589851.3647</v>
       </c>
       <c r="L50" s="1">
-        <v>13.5581</v>
+        <v>13.5599</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.2345</v>
@@ -10311,10 +10314,10 @@
         <v>551029.0336</v>
       </c>
       <c r="K51" s="1">
-        <v>594106.3807</v>
+        <v>594186.8704</v>
       </c>
       <c r="L51" s="1">
-        <v>13.5512</v>
+        <v>13.5531</v>
       </c>
       <c r="M51" s="1">
         <v>0.3</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.1636</v>
@@ -10364,10 +10367,10 @@
         <v>569515.4693999999</v>
       </c>
       <c r="K52" s="1">
-        <v>619830.5621</v>
+        <v>619911.0517</v>
       </c>
       <c r="L52" s="1">
-        <v>13.4922</v>
+        <v>13.494</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>11.8145</v>
@@ -10417,10 +10420,10 @@
         <v>562803.2454</v>
       </c>
       <c r="K53" s="1">
-        <v>641522.8654</v>
+        <v>641603.3551</v>
       </c>
       <c r="L53" s="1">
-        <v>13.4436</v>
+        <v>13.4452</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>11.2352</v>
@@ -10470,10 +10473,10 @@
         <v>544675.6777999999</v>
       </c>
       <c r="K54" s="1">
-        <v>651667.7701</v>
+        <v>651748.2598</v>
       </c>
       <c r="L54" s="1">
-        <v>13.4152</v>
+        <v>13.4169</v>
       </c>
       <c r="M54" s="1">
         <v>0.3</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>10.8241</v>
@@ -10523,10 +10526,10 @@
         <v>547455.9361</v>
       </c>
       <c r="K55" s="1">
-        <v>661667.7701</v>
+        <v>661748.2598</v>
       </c>
       <c r="L55" s="1">
-        <v>13.3765</v>
+        <v>13.3781</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>11.2543</v>
@@ -10576,10 +10579,10 @@
         <v>579518.8715</v>
       </c>
       <c r="K56" s="1">
-        <v>684783.4722</v>
+        <v>684863.9619</v>
       </c>
       <c r="L56" s="1">
-        <v>13.272</v>
+        <v>13.2735</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.5675</v>
@@ -10629,10 +10632,10 @@
         <v>553507.0106</v>
       </c>
       <c r="K57" s="1">
-        <v>694783.4722</v>
+        <v>694863.9619</v>
       </c>
       <c r="L57" s="1">
-        <v>13.2383</v>
+        <v>13.2398</v>
       </c>
       <c r="M57" s="1">
         <v>0.3</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>9.967000000000001</v>
@@ -10682,10 +10685,10 @@
         <v>545618.4203</v>
       </c>
       <c r="K58" s="1">
-        <v>704783.4722</v>
+        <v>704863.9619</v>
       </c>
       <c r="L58" s="1">
-        <v>13.1914</v>
+        <v>13.1929</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.0064</v>
@@ -10735,10 +10738,10 @@
         <v>557716.6663</v>
       </c>
       <c r="K59" s="1">
-        <v>728953.8899</v>
+        <v>729034.3795</v>
       </c>
       <c r="L59" s="1">
-        <v>13.0526</v>
+        <v>13.054</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.0129</v>
@@ -10788,10 +10791,10 @@
         <v>568046.1646</v>
       </c>
       <c r="K60" s="1">
-        <v>738953.8899</v>
+        <v>739034.3795</v>
       </c>
       <c r="L60" s="1">
-        <v>12.9995</v>
+        <v>13.0009</v>
       </c>
       <c r="M60" s="1">
         <v>0.3</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.4583</v>
@@ -10841,10 +10844,10 @@
         <v>619064.9701</v>
       </c>
       <c r="K61" s="1">
-        <v>748953.8899</v>
+        <v>749034.3795</v>
       </c>
       <c r="L61" s="1">
-        <v>12.9483</v>
+        <v>12.9497</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.3341</v>
@@ -10894,10 +10897,10 @@
         <v>621491.3091</v>
       </c>
       <c r="K62" s="1">
-        <v>774302.0335</v>
+        <v>774382.5232000001</v>
       </c>
       <c r="L62" s="1">
-        <v>12.8492</v>
+        <v>12.8506</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.8083</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-23</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.5636</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-22</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.1788</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-21</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.5668</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-20</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.962</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-19</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.2659</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-18</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.4103</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-17</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.3976</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-16</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.9013</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.3527</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8804</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.6268</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>15.3636</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-11</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.8711</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-10</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.1252</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-9</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.1934</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-8</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.1176</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-7</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.3311</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-6</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>15.3637</v>
@@ -11980,10 +11983,10 @@
         <v>219950.1088</v>
       </c>
       <c r="K20" s="1">
-        <v>173664.4681</v>
+        <v>173680.5125</v>
       </c>
       <c r="L20" s="1">
-        <v>13.5466</v>
+        <v>13.5479</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-5</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.6447</v>
@@ -12033,10 +12036,10 @@
         <v>220164.0975</v>
       </c>
       <c r="K21" s="1">
-        <v>185254.3193</v>
+        <v>185270.3637</v>
       </c>
       <c r="L21" s="1">
-        <v>13.6491</v>
+        <v>13.6503</v>
       </c>
       <c r="M21" s="1">
         <v>1</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-4</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.486</v>
@@ -12086,10 +12089,10 @@
         <v>254941.057</v>
       </c>
       <c r="K22" s="1">
-        <v>207162.6093</v>
+        <v>207178.6536</v>
       </c>
       <c r="L22" s="1">
-        <v>13.7507</v>
+        <v>13.7518</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.1958</v>
@@ -12139,10 +12142,10 @@
         <v>275593.0434</v>
       </c>
       <c r="K23" s="1">
-        <v>206713.6224</v>
+        <v>206731.4608</v>
       </c>
       <c r="L23" s="1">
-        <v>13.7473</v>
+        <v>13.7485</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>16.4264</v>
@@ -12192,10 +12195,10 @@
         <v>289071.5968</v>
       </c>
       <c r="K24" s="1">
-        <v>208392.2583</v>
+        <v>208410.0966</v>
       </c>
       <c r="L24" s="1">
-        <v>13.7642</v>
+        <v>13.7654</v>
       </c>
       <c r="M24" s="1">
         <v>0.75</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>17.107</v>
@@ -12245,10 +12248,10 @@
         <v>319909.7336</v>
       </c>
       <c r="K25" s="1">
-        <v>217390.0769</v>
+        <v>217407.9152</v>
       </c>
       <c r="L25" s="1">
-        <v>13.8582</v>
+        <v>13.8593</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.8894</v>
@@ -12298,10 +12301,10 @@
         <v>326470.4798</v>
       </c>
       <c r="K26" s="1">
-        <v>219314.929</v>
+        <v>219332.7673</v>
       </c>
       <c r="L26" s="1">
-        <v>13.8815</v>
+        <v>13.8826</v>
       </c>
       <c r="M26" s="1">
         <v>1</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>16.4004</v>
@@ -12351,10 +12354,10 @@
         <v>342448.057</v>
       </c>
       <c r="K27" s="1">
-        <v>235508.5227</v>
+        <v>235526.3611</v>
       </c>
       <c r="L27" s="1">
-        <v>14.0552</v>
+        <v>14.0563</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3877</v>
@@ -12404,10 +12407,10 @@
         <v>334131.6674</v>
       </c>
       <c r="K28" s="1">
-        <v>256594.0575</v>
+        <v>256611.8958</v>
       </c>
       <c r="L28" s="1">
-        <v>14.2243</v>
+        <v>14.2253</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.6367</v>
@@ -12457,10 +12460,10 @@
         <v>328964.3141</v>
       </c>
       <c r="K29" s="1">
-        <v>287903.7994</v>
+        <v>287921.6378</v>
       </c>
       <c r="L29" s="1">
-        <v>14.3452</v>
+        <v>14.3461</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.0061</v>
@@ -12510,10 +12513,10 @@
         <v>303058.891</v>
       </c>
       <c r="K30" s="1">
-        <v>316140.9784</v>
+        <v>316158.8167</v>
       </c>
       <c r="L30" s="1">
-        <v>14.3733</v>
+        <v>14.3741</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.835</v>
@@ -12563,10 +12566,10 @@
         <v>342790.1932</v>
       </c>
       <c r="K31" s="1">
-        <v>343701.5</v>
+        <v>343719.3384</v>
       </c>
       <c r="L31" s="1">
-        <v>14.2556</v>
+        <v>14.2564</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.4216</v>
@@ -12616,10 +12619,10 @@
         <v>367480.7518</v>
       </c>
       <c r="K32" s="1">
-        <v>358718.0203</v>
+        <v>358735.8587</v>
       </c>
       <c r="L32" s="1">
-        <v>14.2387</v>
+        <v>14.2394</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.2404</v>
@@ -12669,10 +12672,10 @@
         <v>347884.7817</v>
       </c>
       <c r="K33" s="1">
-        <v>357440.8401</v>
+        <v>357463.7782</v>
       </c>
       <c r="L33" s="1">
-        <v>14.238</v>
+        <v>14.2389</v>
       </c>
       <c r="M33" s="1">
         <v>0.4</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.382</v>
@@ -12722,10 +12725,10 @@
         <v>343621.9481</v>
       </c>
       <c r="K34" s="1">
-        <v>383594.1874</v>
+        <v>383617.1255</v>
       </c>
       <c r="L34" s="1">
-        <v>14.1673</v>
+        <v>14.1681</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>11.9583</v>
@@ -12775,10 +12778,10 @@
         <v>341449.3138</v>
       </c>
       <c r="K35" s="1">
-        <v>402631.8914</v>
+        <v>402654.8294</v>
       </c>
       <c r="L35" s="1">
-        <v>14.0729</v>
+        <v>14.0737</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.2036</v>
@@ -12828,10 +12831,10 @@
         <v>358617.4933</v>
       </c>
       <c r="K36" s="1">
-        <v>412631.8914</v>
+        <v>412654.8294</v>
       </c>
       <c r="L36" s="1">
-        <v>14.0136</v>
+        <v>14.0144</v>
       </c>
       <c r="M36" s="1">
         <v>0.4</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>12.9136</v>
@@ -12881,10 +12884,10 @@
         <v>400621.9987</v>
       </c>
       <c r="K37" s="1">
-        <v>422631.8914</v>
+        <v>422654.8294</v>
       </c>
       <c r="L37" s="1">
-        <v>13.9654</v>
+        <v>13.9661</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.4338</v>
@@ -12934,10 +12937,10 @@
         <v>427075.5731</v>
       </c>
       <c r="K38" s="1">
-        <v>443232.1194</v>
+        <v>443255.0575</v>
       </c>
       <c r="L38" s="1">
-        <v>13.9141</v>
+        <v>13.9148</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>12.9657</v>
@@ -12987,10 +12990,10 @@
         <v>421809.1669</v>
       </c>
       <c r="K39" s="1">
-        <v>453232.1194</v>
+        <v>453255.0575</v>
       </c>
       <c r="L39" s="1">
-        <v>13.9038</v>
+        <v>13.9045</v>
       </c>
       <c r="M39" s="1">
         <v>0.3</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.3568</v>
@@ -13040,10 +13043,10 @@
         <v>453593.9762</v>
       </c>
       <c r="K40" s="1">
-        <v>463232.1194</v>
+        <v>463255.0575</v>
       </c>
       <c r="L40" s="1">
-        <v>13.8827</v>
+        <v>13.8834</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.2487</v>
@@ -13093,10 +13096,10 @@
         <v>459766.883</v>
       </c>
       <c r="K41" s="1">
-        <v>482033.5287</v>
+        <v>482056.4667</v>
       </c>
       <c r="L41" s="1">
-        <v>13.8626</v>
+        <v>13.8632</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.3991</v>
@@ -13146,10 +13149,10 @@
         <v>475059.3557</v>
       </c>
       <c r="K42" s="1">
-        <v>492033.5287</v>
+        <v>492056.4667</v>
       </c>
       <c r="L42" s="1">
-        <v>13.8501</v>
+        <v>13.8507</v>
       </c>
       <c r="M42" s="1">
         <v>0.4</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.5985</v>
@@ -13199,10 +13202,10 @@
         <v>505026.4799</v>
       </c>
       <c r="K43" s="1">
-        <v>502033.5287</v>
+        <v>502056.4667</v>
       </c>
       <c r="L43" s="1">
-        <v>13.8414</v>
+        <v>13.842</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.6955</v>
@@ -13252,10 +13255,10 @@
         <v>518608.3749</v>
       </c>
       <c r="K44" s="1">
-        <v>524822.7547</v>
+        <v>524845.6928</v>
       </c>
       <c r="L44" s="1">
-        <v>13.8319</v>
+        <v>13.8325</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.3398</v>
@@ -13305,10 +13308,10 @@
         <v>514839.9939</v>
       </c>
       <c r="K45" s="1">
-        <v>534822.7547</v>
+        <v>534845.6928</v>
       </c>
       <c r="L45" s="1">
-        <v>13.8298</v>
+        <v>13.8304</v>
       </c>
       <c r="M45" s="1">
         <v>0.3</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.8469</v>
@@ -13358,10 +13361,10 @@
         <v>515850.787</v>
       </c>
       <c r="K46" s="1">
-        <v>544822.7547</v>
+        <v>544845.6928</v>
       </c>
       <c r="L46" s="1">
-        <v>13.821</v>
+        <v>13.8216</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.129</v>
@@ -13411,10 +13414,10 @@
         <v>537312.86</v>
       </c>
       <c r="K47" s="1">
-        <v>565264.1094</v>
+        <v>565287.0474</v>
       </c>
       <c r="L47" s="1">
-        <v>13.7843</v>
+        <v>13.7849</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.716</v>
@@ -13464,10 +13467,10 @@
         <v>530060.3051999999</v>
       </c>
       <c r="K48" s="1">
-        <v>575264.1094</v>
+        <v>575287.0474</v>
       </c>
       <c r="L48" s="1">
-        <v>13.7729</v>
+        <v>13.7734</v>
       </c>
       <c r="M48" s="1">
         <v>0.3</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.4613</v>
@@ -13517,10 +13520,10 @@
         <v>540480.785</v>
       </c>
       <c r="K49" s="1">
-        <v>585264.1094</v>
+        <v>585287.0474</v>
       </c>
       <c r="L49" s="1">
-        <v>13.7538</v>
+        <v>13.7544</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.6545</v>
@@ -13570,10 +13573,10 @@
         <v>558928.4712</v>
       </c>
       <c r="K50" s="1">
-        <v>606541.455</v>
+        <v>606564.3931</v>
       </c>
       <c r="L50" s="1">
-        <v>13.705</v>
+        <v>13.7056</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.2345</v>
@@ -13623,10 +13626,10 @@
         <v>550005.4178000001</v>
       </c>
       <c r="K51" s="1">
-        <v>616541.455</v>
+        <v>616564.3931</v>
       </c>
       <c r="L51" s="1">
-        <v>13.6871</v>
+        <v>13.6876</v>
       </c>
       <c r="M51" s="1">
         <v>0.3</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.1636</v>
@@ -13676,10 +13679,10 @@
         <v>568885.3412</v>
       </c>
       <c r="K52" s="1">
-        <v>626541.455</v>
+        <v>626564.3931</v>
       </c>
       <c r="L52" s="1">
-        <v>13.6617</v>
+        <v>13.6622</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>11.8145</v>
@@ -13729,10 +13732,10 @@
         <v>562185.2192000001</v>
       </c>
       <c r="K53" s="1">
-        <v>648703.737</v>
+        <v>648726.675</v>
       </c>
       <c r="L53" s="1">
-        <v>13.6055</v>
+        <v>13.606</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>11.2352</v>
@@ -13782,10 +13785,10 @@
         <v>544088.5089</v>
       </c>
       <c r="K54" s="1">
-        <v>658703.737</v>
+        <v>658726.675</v>
       </c>
       <c r="L54" s="1">
-        <v>13.5747</v>
+        <v>13.5752</v>
       </c>
       <c r="M54" s="1">
         <v>0.3</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>10.8241</v>
@@ -13835,10 +13838,10 @@
         <v>546876.1141</v>
       </c>
       <c r="K55" s="1">
-        <v>668703.737</v>
+        <v>668726.675</v>
       </c>
       <c r="L55" s="1">
-        <v>13.5331</v>
+        <v>13.5335</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>11.2543</v>
@@ -13888,10 +13891,10 @@
         <v>578916.0601999999</v>
       </c>
       <c r="K56" s="1">
-        <v>691805.3001</v>
+        <v>691828.2382</v>
       </c>
       <c r="L56" s="1">
-        <v>13.422</v>
+        <v>13.4225</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.5675</v>
@@ -13941,10 +13944,10 @@
         <v>552940.9847</v>
       </c>
       <c r="K57" s="1">
-        <v>701805.3001</v>
+        <v>701828.2382</v>
       </c>
       <c r="L57" s="1">
-        <v>13.3857</v>
+        <v>13.3862</v>
       </c>
       <c r="M57" s="1">
         <v>0.3</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>9.967000000000001</v>
@@ -13994,10 +13997,10 @@
         <v>545070.068</v>
       </c>
       <c r="K58" s="1">
-        <v>711805.3001</v>
+        <v>711828.2382</v>
       </c>
       <c r="L58" s="1">
-        <v>13.3362</v>
+        <v>13.3367</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.0064</v>
@@ -14047,10 +14050,10 @@
         <v>557166.2056</v>
       </c>
       <c r="K59" s="1">
-        <v>735961.2269</v>
+        <v>735984.1649</v>
       </c>
       <c r="L59" s="1">
-        <v>13.191</v>
+        <v>13.1915</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.0129</v>
@@ -14100,10 +14103,10 @@
         <v>567495.3456999999</v>
       </c>
       <c r="K60" s="1">
-        <v>745961.2269</v>
+        <v>745984.1649</v>
       </c>
       <c r="L60" s="1">
-        <v>13.1355</v>
+        <v>13.1359</v>
       </c>
       <c r="M60" s="1">
         <v>0.3</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.4583</v>
@@ -14153,10 +14156,10 @@
         <v>618474.7672</v>
       </c>
       <c r="K61" s="1">
-        <v>755961.2269</v>
+        <v>755984.1649</v>
       </c>
       <c r="L61" s="1">
-        <v>13.082</v>
+        <v>13.0824</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.3341</v>
@@ -14206,10 +14209,10 @@
         <v>620908.1768</v>
       </c>
       <c r="K62" s="1">
-        <v>781294.4878</v>
+        <v>781317.4259</v>
       </c>
       <c r="L62" s="1">
-        <v>12.9774</v>
+        <v>12.9778</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.8083</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-23</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.5636</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-22</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.1788</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-21</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.5668</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-20</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.962</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-19</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.2659</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-18</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.4103</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-17</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.3976</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-16</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.9013</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.3527</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8804</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.6268</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>15.3636</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-11</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.8711</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-10</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.1252</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-9</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.1934</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-8</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.1176</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-7</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.3311</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-6</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>15.3637</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-5</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.6447</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-4</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.486</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.1958</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>16.4264</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>17.107</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.8894</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>16.4004</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3877</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.6367</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.0061</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.835</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.4216</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.2404</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.382</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>11.9583</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.2036</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>12.9136</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.4338</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>12.9657</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.3568</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.2487</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.3991</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.5985</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.6955</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.3398</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.8469</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.129</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.716</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.4613</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.6545</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.2345</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.1636</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>11.8145</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>11.2352</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>10.8241</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>11.2543</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.5675</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>9.967000000000001</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.0064</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.0129</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.4583</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.3341</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -17597,13 +17600,13 @@
         <v>12.8003</v>
       </c>
       <c r="D3" s="1">
-        <v>12.6994</v>
+        <v>12.7031</v>
       </c>
       <c r="E3" s="1">
-        <v>12.8492</v>
+        <v>12.8506</v>
       </c>
       <c r="F3" s="1">
-        <v>12.9774</v>
+        <v>12.9778</v>
       </c>
       <c r="G3" s="1">
         <v>13.0513</v>
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>184449.0308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.8057</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.8571</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.8026</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.7947</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.7902</v>
       </c>
     </row>
   </sheetData>
